--- a/nodes_source_analyses/energy/energy_heat_burner_wood_pellets.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_heat_burner_wood_pellets.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ACA90F-97AA-3C4F-9E20-A76E54BD274A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A9EB18-6332-A747-B8FC-D5E0AF272F73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24440" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="120">
   <si>
     <t>Source</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>No source</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1199,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1451,6 +1454,7 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="256">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2212,12 +2216,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -2391,23 +2395,23 @@
   </sheetPr>
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2848,15 +2852,15 @@
         <v>3</v>
       </c>
       <c r="E27" s="44">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="31" t="s">
-        <v>52</v>
+      <c r="I27" s="152" t="s">
+        <v>119</v>
       </c>
       <c r="J27" s="94"/>
     </row>
@@ -2999,21 +3003,21 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="102" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="102" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="102" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="102" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="102" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="102" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" style="102" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="103" customWidth="1"/>
-    <col min="10" max="10" width="2.5" style="103" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="103" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="102" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="102" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="102" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="102" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="102" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="102" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" style="102" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="103" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="103" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="103" customWidth="1"/>
     <col min="12" max="12" width="3" style="103" customWidth="1"/>
     <col min="13" max="13" width="60" style="102" customWidth="1"/>
-    <col min="14" max="16384" width="10.6640625" style="102"/>
+    <col min="14" max="16384" width="10.7109375" style="102"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1"/>
@@ -3378,18 +3382,18 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="34.5" style="46" customWidth="1"/>
-    <col min="11" max="11" width="60.5" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="45"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" style="46" customWidth="1"/>
+    <col min="11" max="11" width="60.42578125" style="45" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -3615,12 +3619,12 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="130" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="130" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="130" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="130"/>
+    <col min="1" max="1" width="5.28515625" style="130" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="130" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="130" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="130"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1"/>
